--- a/biology/Écologie/Festival_mondial_de_la_terre/Festival_mondial_de_la_terre.xlsx
+++ b/biology/Écologie/Festival_mondial_de_la_terre/Festival_mondial_de_la_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festival Mondial de la Terre est organisé chaque année depuis 2005 par l'association Terralliance, dans une démarche décentralisée proche de celle du Forum social mondial.
 Deux enjeux principaux du développement durable ont motivé la création du Festival Mondial de la Terre : l'écologisme et la solidarité.
@@ -524,45 +536,274 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En France
-37 départements ayant créé des évènements durant la semaine du Festival
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>37 départements ayant créé des évènements durant la semaine du Festival
 15 grandes villes participantes
 25 villes moyennes et villages
-318 évènements à travers l'hexagone
-Les acteurs qui se sont engagés
-5 mairies de grandes villes :
+318 évènements à travers l'hexagone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les acteurs qui se sont engagés</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 mairies de grandes villes :
 Paris, Rouen, Toulouse, Lille, Lyon
 200 associations au niveau national
 20 entreprises partenaires du Festival
-250 bénévoles au niveau national
-Les actions qui ont été entreprises
-des actions collectives de nettoyage
+250 bénévoles au niveau national</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les actions qui ont été entreprises</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>des actions collectives de nettoyage
 de nombreuses conférences et tables rondes
 des villages associatifs sur les thèmes du Festival
 plus de 50 concerts pour la Terre dans l'hexagone
 des spectacles de théâtre
 des expositions artistiques
-une marche de solidarité envers la planète
-Le public touché en France
-50 000 visiteurs adultes ayant participé directement
+une marche de solidarité envers la planète</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Le public touché en France</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>50 000 visiteurs adultes ayant participé directement
 50 000 enfants sensibilisés
 25 000 visiteurs sur le Web
-le public sensibilisé par les médias
-Les relais médias
-30 000 affiches diffusées
+le public sensibilisé par les médias</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les relais médias</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30 000 affiches diffusées
 50 000 jeux Coccinelle en diffusion gratuite
 80 articles de presse nationale et locale
 de nombreux spots radio
-passages sur des TV régionales
-Les produits dérivés du festival
-T-shirts du Festival
+passages sur des TV régionales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les produits dérivés du festival</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>T-shirts du Festival
 CD 13 titres de musiques du monde
 l'hymne du Festival en Espéranto
 série 7 cartes postales des journées à thème
 banderoles du Festival
-ouvrage " Ensemble, sauvons notre planète " (Trédaniel)
-Au niveau Mondial
-24 pays ayant organisé leur propre Festival
+ouvrage " Ensemble, sauvons notre planète " (Trédaniel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bilan du l'édition 2006</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au niveau Mondial</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>24 pays ayant organisé leur propre Festival
 5 pays avec site internet dédié au Festival
 600 évènements au total organisés sur les 5 continents
 200 000 personnes touchées par le Festival (hors France)
@@ -570,31 +811,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bilan de l'édition 2007</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édition 2007 du Festival de la Terre s'est tenue du 18 au 24 juin. 
 Son thème central était "Les Solidarités".
@@ -610,31 +853,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">20 pays ont créé des événements.
 En suisse, le Festival de la Terre est le 1er festival reconnu comme "Activité de la Décennie pour l'éducation en vue du développement durable" par la Commission suisse pour l'UNESCO.
@@ -642,31 +887,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cinquième édition, tenue du 12 au 28 juin 2009, compte 20 pays participants.
 En France 96 évènements ont été proposés sur le territoire.
@@ -674,31 +921,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Festival_mondial_de_la_terre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Comité de soutien</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festival Mondial de la Terre est porté par des personnalités de renom engagées en faveur de la protection de la planète: Edgar Morin, Pierre Rabhi, Jean-Marie Pelt, Yann Arthus-Bertrand, Nicolas Vanier œuvrent au sein du comité de soutien afin que cet évènement national et mondial puisse être pérennisé.
 </t>
